--- a/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y325"/>
+  <dimension ref="A1:Y338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27322,6 +27322,1091 @@
         <v>-170.45</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>8</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>D. RODRIGUEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G326" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" t="n">
+        <v>0</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0</v>
+      </c>
+      <c r="U326" t="n">
+        <v>0</v>
+      </c>
+      <c r="V326" t="n">
+        <v>0</v>
+      </c>
+      <c r="W326" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="X326" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>-55.97</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>8</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>P. RODRIGUEZ RIVERO</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G327" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>2</v>
+      </c>
+      <c r="N327" t="n">
+        <v>2</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>0</v>
+      </c>
+      <c r="T327" t="n">
+        <v>0</v>
+      </c>
+      <c r="U327" t="n">
+        <v>0</v>
+      </c>
+      <c r="V327" t="n">
+        <v>0</v>
+      </c>
+      <c r="W327" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="X327" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>-55.97</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>8</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>J. RIES</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G328" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="n">
+        <v>1</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1</v>
+      </c>
+      <c r="U328" t="n">
+        <v>0</v>
+      </c>
+      <c r="V328" t="n">
+        <v>1</v>
+      </c>
+      <c r="W328" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="X328" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>-55.97</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>8</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>O. PEÑA LOPEZ</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G329" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>2</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
+      <c r="S329" t="n">
+        <v>1</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2</v>
+      </c>
+      <c r="V329" t="n">
+        <v>0</v>
+      </c>
+      <c r="W329" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="X329" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>-55.97</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>8</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>M. NIANG</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G330" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+      <c r="S330" t="n">
+        <v>0</v>
+      </c>
+      <c r="T330" t="n">
+        <v>0</v>
+      </c>
+      <c r="U330" t="n">
+        <v>0</v>
+      </c>
+      <c r="V330" t="n">
+        <v>0</v>
+      </c>
+      <c r="W330" t="n">
+        <v>0</v>
+      </c>
+      <c r="X330" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>-48.45</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>8</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>A. APARICIO IZQUIERDO</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G331" t="n">
+        <v>27</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" t="n">
+        <v>0</v>
+      </c>
+      <c r="T331" t="n">
+        <v>0</v>
+      </c>
+      <c r="U331" t="n">
+        <v>0</v>
+      </c>
+      <c r="V331" t="n">
+        <v>0</v>
+      </c>
+      <c r="W331" t="n">
+        <v>0</v>
+      </c>
+      <c r="X331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>-72.73</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>8</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>G. DIAZ MONTERO</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G332" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="n">
+        <v>1</v>
+      </c>
+      <c r="S332" t="n">
+        <v>0</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1</v>
+      </c>
+      <c r="V332" t="n">
+        <v>1</v>
+      </c>
+      <c r="W332" t="n">
+        <v>60</v>
+      </c>
+      <c r="X332" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>8</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>N. MAIGA</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G333" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" t="n">
+        <v>1</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="n">
+        <v>1</v>
+      </c>
+      <c r="S333" t="n">
+        <v>0</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1</v>
+      </c>
+      <c r="U333" t="n">
+        <v>1</v>
+      </c>
+      <c r="V333" t="n">
+        <v>0</v>
+      </c>
+      <c r="W333" t="n">
+        <v>40</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>8</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>J. DOMINGUEZ LARRE</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G334" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
+      <c r="O334" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
+      <c r="S334" t="n">
+        <v>0</v>
+      </c>
+      <c r="T334" t="n">
+        <v>0</v>
+      </c>
+      <c r="U334" t="n">
+        <v>0</v>
+      </c>
+      <c r="V334" t="n">
+        <v>0</v>
+      </c>
+      <c r="W334" t="n">
+        <v>20</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>8</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>D. GONZALEZ LONGARELA</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G335" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0</v>
+      </c>
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
+      <c r="S335" t="n">
+        <v>0</v>
+      </c>
+      <c r="T335" t="n">
+        <v>0</v>
+      </c>
+      <c r="U335" t="n">
+        <v>0</v>
+      </c>
+      <c r="V335" t="n">
+        <v>0</v>
+      </c>
+      <c r="W335" t="n">
+        <v>0</v>
+      </c>
+      <c r="X335" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>48.45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>8</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>J. ATIENZA PEREA</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G336" t="n">
+        <v>64.80000000000001</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="n">
+        <v>1</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
+      <c r="S336" t="n">
+        <v>1</v>
+      </c>
+      <c r="T336" t="n">
+        <v>0</v>
+      </c>
+      <c r="U336" t="n">
+        <v>0</v>
+      </c>
+      <c r="V336" t="n">
+        <v>0</v>
+      </c>
+      <c r="W336" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X336" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>8</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>F. GOMEZ DE ENTERRIA LOPEZ</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="n">
+        <v>60</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
+      <c r="S337" t="n">
+        <v>0</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1</v>
+      </c>
+      <c r="U337" t="n">
+        <v>1</v>
+      </c>
+      <c r="V337" t="n">
+        <v>0</v>
+      </c>
+      <c r="W337" t="n">
+        <v>50</v>
+      </c>
+      <c r="X337" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>8</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>A. SANCHO PEREZ</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G338" t="n">
+        <v>27</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
+      <c r="S338" t="n">
+        <v>0</v>
+      </c>
+      <c r="T338" t="n">
+        <v>0</v>
+      </c>
+      <c r="U338" t="n">
+        <v>0</v>
+      </c>
+      <c r="V338" t="n">
+        <v>0</v>
+      </c>
+      <c r="W338" t="n">
+        <v>0</v>
+      </c>
+      <c r="X338" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>72.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y338"/>
+  <dimension ref="A1:Y399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28407,6 +28407,5073 @@
         <v>72.73</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>9</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>A. GASE SECO</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G339" t="n">
+        <v>285</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>1</v>
+      </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
+      <c r="S339" t="n">
+        <v>1</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2</v>
+      </c>
+      <c r="U339" t="n">
+        <v>1</v>
+      </c>
+      <c r="V339" t="n">
+        <v>1</v>
+      </c>
+      <c r="W339" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X339" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>-123.25</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>9</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G340" t="n">
+        <v>285</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
+      <c r="S340" t="n">
+        <v>0</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1</v>
+      </c>
+      <c r="U340" t="n">
+        <v>0</v>
+      </c>
+      <c r="V340" t="n">
+        <v>1</v>
+      </c>
+      <c r="W340" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="X340" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>-123.25</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>9</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>D. VIERA LOPEZ</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G341" t="n">
+        <v>285</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0</v>
+      </c>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
+      <c r="S341" t="n">
+        <v>0</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1</v>
+      </c>
+      <c r="U341" t="n">
+        <v>1</v>
+      </c>
+      <c r="V341" t="n">
+        <v>0</v>
+      </c>
+      <c r="W341" t="n">
+        <v>0</v>
+      </c>
+      <c r="X341" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>-123.25</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>9</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G342" t="n">
+        <v>207</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
+      <c r="S342" t="n">
+        <v>0</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1</v>
+      </c>
+      <c r="U342" t="n">
+        <v>1</v>
+      </c>
+      <c r="V342" t="n">
+        <v>0</v>
+      </c>
+      <c r="W342" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="X342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>-78.93000000000001</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>9</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>K. SKUTYELNIK</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G343" t="n">
+        <v>186</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0</v>
+      </c>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="n">
+        <v>2</v>
+      </c>
+      <c r="S343" t="n">
+        <v>0</v>
+      </c>
+      <c r="T343" t="n">
+        <v>0</v>
+      </c>
+      <c r="U343" t="n">
+        <v>0</v>
+      </c>
+      <c r="V343" t="n">
+        <v>0</v>
+      </c>
+      <c r="W343" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="X343" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>-156.47</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>9</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G344" t="n">
+        <v>99</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0</v>
+      </c>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="n">
+        <v>1</v>
+      </c>
+      <c r="S344" t="n">
+        <v>0</v>
+      </c>
+      <c r="T344" t="n">
+        <v>0</v>
+      </c>
+      <c r="U344" t="n">
+        <v>0</v>
+      </c>
+      <c r="V344" t="n">
+        <v>0</v>
+      </c>
+      <c r="W344" t="n">
+        <v>50</v>
+      </c>
+      <c r="X344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>-9.57</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>9</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>J. LARREA IBARBURU</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G345" t="n">
+        <v>78</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>2</v>
+      </c>
+      <c r="N345" t="n">
+        <v>1</v>
+      </c>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
+      <c r="S345" t="n">
+        <v>0</v>
+      </c>
+      <c r="T345" t="n">
+        <v>0</v>
+      </c>
+      <c r="U345" t="n">
+        <v>0</v>
+      </c>
+      <c r="V345" t="n">
+        <v>0</v>
+      </c>
+      <c r="W345" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="X345" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>-203.37</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>9</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>L. DE LA CRUZ DE LA ROSA</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G346" t="n">
+        <v>285</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>2</v>
+      </c>
+      <c r="N346" t="n">
+        <v>1</v>
+      </c>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
+      <c r="S346" t="n">
+        <v>1</v>
+      </c>
+      <c r="T346" t="n">
+        <v>1</v>
+      </c>
+      <c r="U346" t="n">
+        <v>0</v>
+      </c>
+      <c r="V346" t="n">
+        <v>1</v>
+      </c>
+      <c r="W346" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="X346" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>9</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>J. BARRA DE LA CRUZ</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G347" t="n">
+        <v>285</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>4</v>
+      </c>
+      <c r="N347" t="n">
+        <v>3</v>
+      </c>
+      <c r="O347" t="n">
+        <v>1</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
+      <c r="S347" t="n">
+        <v>0</v>
+      </c>
+      <c r="T347" t="n">
+        <v>0</v>
+      </c>
+      <c r="U347" t="n">
+        <v>0</v>
+      </c>
+      <c r="V347" t="n">
+        <v>0</v>
+      </c>
+      <c r="W347" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="X347" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>9</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>M. OILLATAGUERRE</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G348" t="n">
+        <v>285</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>6</v>
+      </c>
+      <c r="N348" t="n">
+        <v>4</v>
+      </c>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="n">
+        <v>1</v>
+      </c>
+      <c r="S348" t="n">
+        <v>0</v>
+      </c>
+      <c r="T348" t="n">
+        <v>2</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2</v>
+      </c>
+      <c r="V348" t="n">
+        <v>0</v>
+      </c>
+      <c r="W348" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="X348" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>123.25</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>9</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>G. HIERRO ABAD</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="G349" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="n">
+        <v>1</v>
+      </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
+      <c r="S349" t="n">
+        <v>0</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1</v>
+      </c>
+      <c r="U349" t="n">
+        <v>1</v>
+      </c>
+      <c r="V349" t="n">
+        <v>0</v>
+      </c>
+      <c r="W349" t="n">
+        <v>0</v>
+      </c>
+      <c r="X349" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>9</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>V. FERNANDEZ MORAN</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G350" t="n">
+        <v>207</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S350" t="n">
+        <v>0</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1</v>
+      </c>
+      <c r="U350" t="n">
+        <v>1</v>
+      </c>
+      <c r="V350" t="n">
+        <v>0</v>
+      </c>
+      <c r="W350" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="X350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>78.93000000000001</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>9</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>J. MUNRO</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G351" t="n">
+        <v>78</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
+      <c r="S351" t="n">
+        <v>0</v>
+      </c>
+      <c r="T351" t="n">
+        <v>0</v>
+      </c>
+      <c r="U351" t="n">
+        <v>0</v>
+      </c>
+      <c r="V351" t="n">
+        <v>0</v>
+      </c>
+      <c r="W351" t="n">
+        <v>0</v>
+      </c>
+      <c r="X351" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>9</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>J. MENDOZA ALVAREZ</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G352" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0</v>
+      </c>
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
+      <c r="S352" t="n">
+        <v>0</v>
+      </c>
+      <c r="T352" t="n">
+        <v>0</v>
+      </c>
+      <c r="U352" t="n">
+        <v>0</v>
+      </c>
+      <c r="V352" t="n">
+        <v>0</v>
+      </c>
+      <c r="W352" t="inlineStr"/>
+      <c r="X352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>9</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>A. SISTAC RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G353" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>3</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>2</v>
+      </c>
+      <c r="N353" t="n">
+        <v>2</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
+      <c r="S353" t="n">
+        <v>0</v>
+      </c>
+      <c r="T353" t="n">
+        <v>0</v>
+      </c>
+      <c r="U353" t="n">
+        <v>0</v>
+      </c>
+      <c r="V353" t="n">
+        <v>0</v>
+      </c>
+      <c r="W353" t="n">
+        <v>62.58</v>
+      </c>
+      <c r="X353" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>129.03</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>9</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>M. NIMAGA</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="G354" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0</v>
+      </c>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
+      <c r="S354" t="n">
+        <v>0</v>
+      </c>
+      <c r="T354" t="n">
+        <v>2</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2</v>
+      </c>
+      <c r="V354" t="n">
+        <v>0</v>
+      </c>
+      <c r="W354" t="n">
+        <v>0</v>
+      </c>
+      <c r="X354" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>153.85</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>9</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>P. ARGÜELLES ELORZA</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G355" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>1</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="n">
+        <v>1</v>
+      </c>
+      <c r="S355" t="n">
+        <v>0</v>
+      </c>
+      <c r="T355" t="n">
+        <v>2</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2</v>
+      </c>
+      <c r="V355" t="n">
+        <v>0</v>
+      </c>
+      <c r="W355" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="X355" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>105.04</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>9</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>B. FERNANDEZ SHEPHARD</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F356" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G356" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+      <c r="N356" t="n">
+        <v>1</v>
+      </c>
+      <c r="O356" t="n">
+        <v>1</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>0</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0</v>
+      </c>
+      <c r="U356" t="n">
+        <v>0</v>
+      </c>
+      <c r="V356" t="n">
+        <v>0</v>
+      </c>
+      <c r="W356" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="X356" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>112.61</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>9</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>P. HERNANDEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G357" t="n">
+        <v>123</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>1</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
+      <c r="S357" t="n">
+        <v>0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1</v>
+      </c>
+      <c r="U357" t="n">
+        <v>0</v>
+      </c>
+      <c r="V357" t="n">
+        <v>1</v>
+      </c>
+      <c r="W357" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="X357" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>112.61</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>9</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>S. MANERO GUZMAN</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G358" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>2</v>
+      </c>
+      <c r="N358" t="n">
+        <v>1</v>
+      </c>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
+      <c r="S358" t="n">
+        <v>0</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0</v>
+      </c>
+      <c r="U358" t="n">
+        <v>0</v>
+      </c>
+      <c r="V358" t="n">
+        <v>0</v>
+      </c>
+      <c r="W358" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="X358" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>142.86</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>9</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>E. DUQUE NEGRÍN</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G359" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
+      <c r="S359" t="n">
+        <v>1</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0</v>
+      </c>
+      <c r="U359" t="n">
+        <v>0</v>
+      </c>
+      <c r="V359" t="n">
+        <v>0</v>
+      </c>
+      <c r="W359" t="n">
+        <v>56.82</v>
+      </c>
+      <c r="X359" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>170.45</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>9</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>K. RIVEROL DE LAS CASAS</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G360" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
+      <c r="S360" t="n">
+        <v>0</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1</v>
+      </c>
+      <c r="U360" t="n">
+        <v>1</v>
+      </c>
+      <c r="V360" t="n">
+        <v>0</v>
+      </c>
+      <c r="W360" t="inlineStr"/>
+      <c r="X360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>9</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>M. ALARCON ORTIZ</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G361" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
+      <c r="S361" t="n">
+        <v>1</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1</v>
+      </c>
+      <c r="U361" t="n">
+        <v>0</v>
+      </c>
+      <c r="V361" t="n">
+        <v>1</v>
+      </c>
+      <c r="W361" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="X361" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>-129.03</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>9</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>M. BATLLE BERNARDO</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G362" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0</v>
+      </c>
+      <c r="O362" t="inlineStr"/>
+      <c r="P362" t="inlineStr"/>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
+      <c r="S362" t="n">
+        <v>0</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0</v>
+      </c>
+      <c r="U362" t="n">
+        <v>0</v>
+      </c>
+      <c r="V362" t="n">
+        <v>0</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0</v>
+      </c>
+      <c r="X362" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>-129.03</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>9</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>D. TOLOSA OROPESA</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G363" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>1</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>1</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1</v>
+      </c>
+      <c r="U363" t="n">
+        <v>1</v>
+      </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="X363" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>-129.03</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>9</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>F. SANTAMARIA LEON</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G364" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0</v>
+      </c>
+      <c r="O364" t="inlineStr"/>
+      <c r="P364" t="inlineStr"/>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0</v>
+      </c>
+      <c r="T364" t="n">
+        <v>2</v>
+      </c>
+      <c r="U364" t="n">
+        <v>1</v>
+      </c>
+      <c r="V364" t="n">
+        <v>1</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0</v>
+      </c>
+      <c r="X364" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>-129.03</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>9</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>J. AYALA AYLLÓN</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G365" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>2</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0</v>
+      </c>
+      <c r="T365" t="n">
+        <v>0</v>
+      </c>
+      <c r="U365" t="n">
+        <v>0</v>
+      </c>
+      <c r="V365" t="n">
+        <v>0</v>
+      </c>
+      <c r="W365" t="n">
+        <v>65.28</v>
+      </c>
+      <c r="X365" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>-145.35</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>9</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>J. TRUJILLO FERNÁNDEZ</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>1</v>
+      </c>
+      <c r="G366" t="n">
+        <v>60</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+      <c r="O366" t="inlineStr"/>
+      <c r="P366" t="inlineStr"/>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="n">
+        <v>1</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0</v>
+      </c>
+      <c r="U366" t="n">
+        <v>0</v>
+      </c>
+      <c r="V366" t="n">
+        <v>0</v>
+      </c>
+      <c r="W366" t="n">
+        <v>50</v>
+      </c>
+      <c r="X366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>-53.19</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>9</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>M. SANZ CÁMARA</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G367" t="n">
+        <v>21</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+      <c r="O367" t="inlineStr"/>
+      <c r="P367" t="inlineStr"/>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0</v>
+      </c>
+      <c r="T367" t="n">
+        <v>0</v>
+      </c>
+      <c r="U367" t="n">
+        <v>0</v>
+      </c>
+      <c r="V367" t="n">
+        <v>0</v>
+      </c>
+      <c r="W367" t="inlineStr"/>
+      <c r="X367" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>10</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>I. REBERGEN</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G368" t="n">
+        <v>249</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="n">
+        <v>1</v>
+      </c>
+      <c r="S368" t="n">
+        <v>0</v>
+      </c>
+      <c r="T368" t="n">
+        <v>0</v>
+      </c>
+      <c r="U368" t="n">
+        <v>0</v>
+      </c>
+      <c r="V368" t="n">
+        <v>0</v>
+      </c>
+      <c r="W368" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="X368" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>82.43000000000001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>10</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>P. RODRIGUEZ RIVERO</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G369" t="n">
+        <v>249</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0</v>
+      </c>
+      <c r="O369" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>1</v>
+      </c>
+      <c r="R369" t="n">
+        <v>1</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0</v>
+      </c>
+      <c r="U369" t="n">
+        <v>0</v>
+      </c>
+      <c r="V369" t="n">
+        <v>0</v>
+      </c>
+      <c r="W369" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="X369" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>82.43000000000001</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>10</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>M. NIANG</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G370" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+      <c r="O370" t="inlineStr"/>
+      <c r="P370" t="inlineStr"/>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0</v>
+      </c>
+      <c r="T370" t="n">
+        <v>0</v>
+      </c>
+      <c r="U370" t="n">
+        <v>0</v>
+      </c>
+      <c r="V370" t="n">
+        <v>0</v>
+      </c>
+      <c r="W370" t="n">
+        <v>0</v>
+      </c>
+      <c r="X370" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>74.05</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>10</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>D. RODRIGUEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G371" t="n">
+        <v>219</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>1</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>1</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>2</v>
+      </c>
+      <c r="N371" t="n">
+        <v>2</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0</v>
+      </c>
+      <c r="T371" t="n">
+        <v>2</v>
+      </c>
+      <c r="U371" t="n">
+        <v>0</v>
+      </c>
+      <c r="V371" t="n">
+        <v>2</v>
+      </c>
+      <c r="W371" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="X371" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>119.14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>10</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>M. RODRÍGUEZ RIVEROL</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G372" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0</v>
+      </c>
+      <c r="O372" t="inlineStr"/>
+      <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="n">
+        <v>1</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0</v>
+      </c>
+      <c r="T372" t="n">
+        <v>2</v>
+      </c>
+      <c r="U372" t="n">
+        <v>1</v>
+      </c>
+      <c r="V372" t="n">
+        <v>1</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0</v>
+      </c>
+      <c r="X372" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>106.02</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>10</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>A. APARICIO IZQUIERDO</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G373" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2</v>
+      </c>
+      <c r="J373" t="n">
+        <v>2</v>
+      </c>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="n">
+        <v>1</v>
+      </c>
+      <c r="N373" t="n">
+        <v>1</v>
+      </c>
+      <c r="O373" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
+      <c r="S373" t="n">
+        <v>1</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0</v>
+      </c>
+      <c r="U373" t="n">
+        <v>0</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0</v>
+      </c>
+      <c r="W373" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="X373" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>75.38</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>10</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>O. PEÑA LOPEZ</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G374" t="n">
+        <v>30</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0</v>
+      </c>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
+      <c r="S374" t="n">
+        <v>0</v>
+      </c>
+      <c r="T374" t="n">
+        <v>0</v>
+      </c>
+      <c r="U374" t="n">
+        <v>0</v>
+      </c>
+      <c r="V374" t="n">
+        <v>0</v>
+      </c>
+      <c r="W374" t="n">
+        <v>0</v>
+      </c>
+      <c r="X374" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>10</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>J. RIES</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0</v>
+      </c>
+      <c r="O375" t="inlineStr"/>
+      <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0</v>
+      </c>
+      <c r="T375" t="n">
+        <v>0</v>
+      </c>
+      <c r="U375" t="n">
+        <v>0</v>
+      </c>
+      <c r="V375" t="n">
+        <v>0</v>
+      </c>
+      <c r="W375" t="n">
+        <v>0</v>
+      </c>
+      <c r="X375" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>10</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>M. NIMAGA</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G376" t="n">
+        <v>249</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0</v>
+      </c>
+      <c r="O376" t="n">
+        <v>1</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0</v>
+      </c>
+      <c r="T376" t="n">
+        <v>0</v>
+      </c>
+      <c r="U376" t="n">
+        <v>0</v>
+      </c>
+      <c r="V376" t="n">
+        <v>0</v>
+      </c>
+      <c r="W376" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="X376" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>-82.43000000000001</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>10</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>S. MANERO GUZMAN</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G377" t="n">
+        <v>249</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3</v>
+      </c>
+      <c r="J377" t="n">
+        <v>1</v>
+      </c>
+      <c r="K377" t="n">
+        <v>2</v>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
+      <c r="S377" t="n">
+        <v>0</v>
+      </c>
+      <c r="T377" t="n">
+        <v>0</v>
+      </c>
+      <c r="U377" t="n">
+        <v>0</v>
+      </c>
+      <c r="V377" t="n">
+        <v>0</v>
+      </c>
+      <c r="W377" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="X377" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>-82.43000000000001</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>10</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>E. DUQUE NEGRÍN</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G378" t="n">
+        <v>249</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0</v>
+      </c>
+      <c r="O378" t="inlineStr"/>
+      <c r="P378" t="inlineStr"/>
+      <c r="Q378" t="n">
+        <v>1</v>
+      </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
+      <c r="S378" t="n">
+        <v>0</v>
+      </c>
+      <c r="T378" t="n">
+        <v>0</v>
+      </c>
+      <c r="U378" t="n">
+        <v>0</v>
+      </c>
+      <c r="V378" t="n">
+        <v>0</v>
+      </c>
+      <c r="W378" t="n">
+        <v>0</v>
+      </c>
+      <c r="X378" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>-82.43000000000001</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>10</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>A. SISTAC RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G379" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>2</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
+      <c r="S379" t="n">
+        <v>1</v>
+      </c>
+      <c r="T379" t="n">
+        <v>0</v>
+      </c>
+      <c r="U379" t="n">
+        <v>0</v>
+      </c>
+      <c r="V379" t="n">
+        <v>0</v>
+      </c>
+      <c r="W379" t="n">
+        <v>56.39</v>
+      </c>
+      <c r="X379" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>-106.02</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>10</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>B. FERNANDEZ SHEPHARD</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G380" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0</v>
+      </c>
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
+      <c r="S380" t="n">
+        <v>0</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1</v>
+      </c>
+      <c r="U380" t="n">
+        <v>0</v>
+      </c>
+      <c r="V380" t="n">
+        <v>1</v>
+      </c>
+      <c r="W380" t="n">
+        <v>0</v>
+      </c>
+      <c r="X380" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>-230.56</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>10</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>J. GALLETTO LAMELA</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G381" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0</v>
+      </c>
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0</v>
+      </c>
+      <c r="T381" t="n">
+        <v>1</v>
+      </c>
+      <c r="U381" t="n">
+        <v>1</v>
+      </c>
+      <c r="V381" t="n">
+        <v>0</v>
+      </c>
+      <c r="W381" t="n">
+        <v>0</v>
+      </c>
+      <c r="X381" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>-75.38</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>10</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>P. ARGÜELLES ELORZA</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G382" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" t="n">
+        <v>1</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0</v>
+      </c>
+      <c r="T382" t="n">
+        <v>0</v>
+      </c>
+      <c r="U382" t="n">
+        <v>0</v>
+      </c>
+      <c r="V382" t="n">
+        <v>0</v>
+      </c>
+      <c r="W382" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>10</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>C. D. MENSAJERO ISLA DE LA PALMA vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>K. RIVEROL DE LAS CASAS</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G383" t="n">
+        <v>33</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>3</v>
+      </c>
+      <c r="N383" t="n">
+        <v>3</v>
+      </c>
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>1</v>
+      </c>
+      <c r="R383" t="n">
+        <v>1</v>
+      </c>
+      <c r="S383" t="n">
+        <v>0</v>
+      </c>
+      <c r="T383" t="n">
+        <v>0</v>
+      </c>
+      <c r="U383" t="n">
+        <v>0</v>
+      </c>
+      <c r="V383" t="n">
+        <v>0</v>
+      </c>
+      <c r="W383" t="n">
+        <v>116</v>
+      </c>
+      <c r="X383" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>-50.6</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>10</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>A. OLMEDO VELASCO</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="G384" t="n">
+        <v>958.2</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>5</v>
+      </c>
+      <c r="J384" t="n">
+        <v>3</v>
+      </c>
+      <c r="K384" t="n">
+        <v>3</v>
+      </c>
+      <c r="L384" t="n">
+        <v>2</v>
+      </c>
+      <c r="M384" t="n">
+        <v>4</v>
+      </c>
+      <c r="N384" t="n">
+        <v>3</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>2</v>
+      </c>
+      <c r="R384" t="n">
+        <v>3</v>
+      </c>
+      <c r="S384" t="n">
+        <v>0</v>
+      </c>
+      <c r="T384" t="n">
+        <v>0</v>
+      </c>
+      <c r="U384" t="n">
+        <v>0</v>
+      </c>
+      <c r="V384" t="n">
+        <v>0</v>
+      </c>
+      <c r="W384" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="X384" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>-35.55</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>10</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>I. BLANCO-ARGIBAY GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="G385" t="n">
+        <v>745.2</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>4</v>
+      </c>
+      <c r="N385" t="n">
+        <v>1</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" t="n">
+        <v>1</v>
+      </c>
+      <c r="S385" t="n">
+        <v>1</v>
+      </c>
+      <c r="T385" t="n">
+        <v>4</v>
+      </c>
+      <c r="U385" t="n">
+        <v>2</v>
+      </c>
+      <c r="V385" t="n">
+        <v>2</v>
+      </c>
+      <c r="W385" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="X385" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>-32.37</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>10</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>P. DOMINGUEZ LORENZO</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="G386" t="n">
+        <v>715.2</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2</v>
+      </c>
+      <c r="J386" t="n">
+        <v>1</v>
+      </c>
+      <c r="K386" t="n">
+        <v>1</v>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>1</v>
+      </c>
+      <c r="R386" t="n">
+        <v>1</v>
+      </c>
+      <c r="S386" t="n">
+        <v>0</v>
+      </c>
+      <c r="T386" t="n">
+        <v>4</v>
+      </c>
+      <c r="U386" t="n">
+        <v>3</v>
+      </c>
+      <c r="V386" t="n">
+        <v>1</v>
+      </c>
+      <c r="W386" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="X386" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>-15.88</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>10</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>E. BOADA MONTESDEOCA</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G387" t="n">
+        <v>637.8000000000001</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>4</v>
+      </c>
+      <c r="J387" t="n">
+        <v>3</v>
+      </c>
+      <c r="K387" t="n">
+        <v>2</v>
+      </c>
+      <c r="L387" t="n">
+        <v>2</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>1</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" t="n">
+        <v>1</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0</v>
+      </c>
+      <c r="T387" t="n">
+        <v>1</v>
+      </c>
+      <c r="U387" t="n">
+        <v>0</v>
+      </c>
+      <c r="V387" t="n">
+        <v>1</v>
+      </c>
+      <c r="W387" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="X387" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>-29.3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>10</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>E. PEREZ BERNABEU</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="G388" t="n">
+        <v>583.8000000000001</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>3</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2</v>
+      </c>
+      <c r="K388" t="n">
+        <v>2</v>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="n">
+        <v>2</v>
+      </c>
+      <c r="N388" t="n">
+        <v>2</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" t="n">
+        <v>1</v>
+      </c>
+      <c r="S388" t="n">
+        <v>1</v>
+      </c>
+      <c r="T388" t="n">
+        <v>2</v>
+      </c>
+      <c r="U388" t="n">
+        <v>1</v>
+      </c>
+      <c r="V388" t="n">
+        <v>1</v>
+      </c>
+      <c r="W388" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="X388" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>-25.59</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>10</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>A. GOMEZ SERRANO</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="G389" t="n">
+        <v>549</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>1</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
+      <c r="S389" t="n">
+        <v>0</v>
+      </c>
+      <c r="T389" t="n">
+        <v>2</v>
+      </c>
+      <c r="U389" t="n">
+        <v>1</v>
+      </c>
+      <c r="V389" t="n">
+        <v>1</v>
+      </c>
+      <c r="W389" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="X389" t="n">
+        <v>-13</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>-90.44</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>10</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>M. SANCHEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="G390" t="n">
+        <v>349.2</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>1</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
+      <c r="S390" t="n">
+        <v>0</v>
+      </c>
+      <c r="T390" t="n">
+        <v>0</v>
+      </c>
+      <c r="U390" t="n">
+        <v>0</v>
+      </c>
+      <c r="V390" t="n">
+        <v>0</v>
+      </c>
+      <c r="W390" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="X390" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>-72.61</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>10</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>H. SANTANA DE LA ROSA</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G391" t="n">
+        <v>252</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0</v>
+      </c>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="n">
+        <v>2</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1</v>
+      </c>
+      <c r="U391" t="n">
+        <v>0</v>
+      </c>
+      <c r="V391" t="n">
+        <v>1</v>
+      </c>
+      <c r="W391" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="X391" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>10</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>I. GARCIA GALLARDO</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="G392" t="n">
+        <v>949.2</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3</v>
+      </c>
+      <c r="J392" t="n">
+        <v>2</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>2</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>2</v>
+      </c>
+      <c r="R392" t="n">
+        <v>1</v>
+      </c>
+      <c r="S392" t="n">
+        <v>0</v>
+      </c>
+      <c r="T392" t="n">
+        <v>5</v>
+      </c>
+      <c r="U392" t="n">
+        <v>3</v>
+      </c>
+      <c r="V392" t="n">
+        <v>2</v>
+      </c>
+      <c r="W392" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="X392" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>10</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>P. BARCALA BELTRAN</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="G393" t="n">
+        <v>901.1999999999999</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>7</v>
+      </c>
+      <c r="J393" t="n">
+        <v>4</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>1</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
+      <c r="S393" t="n">
+        <v>1</v>
+      </c>
+      <c r="T393" t="n">
+        <v>2</v>
+      </c>
+      <c r="U393" t="n">
+        <v>0</v>
+      </c>
+      <c r="V393" t="n">
+        <v>2</v>
+      </c>
+      <c r="W393" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="X393" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>10</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>P. VILLANUEVA LAZARO</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="G394" t="n">
+        <v>784.2</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>7</v>
+      </c>
+      <c r="J394" t="n">
+        <v>2</v>
+      </c>
+      <c r="K394" t="n">
+        <v>1</v>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="n">
+        <v>2</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>3</v>
+      </c>
+      <c r="R394" t="n">
+        <v>1</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0</v>
+      </c>
+      <c r="T394" t="n">
+        <v>2</v>
+      </c>
+      <c r="U394" t="n">
+        <v>2</v>
+      </c>
+      <c r="V394" t="n">
+        <v>0</v>
+      </c>
+      <c r="W394" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="X394" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>10</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>F. BERMEJO FAJARDO</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="G395" t="n">
+        <v>531</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>6</v>
+      </c>
+      <c r="N395" t="n">
+        <v>3</v>
+      </c>
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>2</v>
+      </c>
+      <c r="R395" t="n">
+        <v>1</v>
+      </c>
+      <c r="S395" t="n">
+        <v>1</v>
+      </c>
+      <c r="T395" t="n">
+        <v>4</v>
+      </c>
+      <c r="U395" t="n">
+        <v>4</v>
+      </c>
+      <c r="V395" t="n">
+        <v>0</v>
+      </c>
+      <c r="W395" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="X395" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>10</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>F. ESPINOSA</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G396" t="n">
+        <v>427.2</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2</v>
+      </c>
+      <c r="K396" t="n">
+        <v>2</v>
+      </c>
+      <c r="L396" t="n">
+        <v>2</v>
+      </c>
+      <c r="M396" t="n">
+        <v>2</v>
+      </c>
+      <c r="N396" t="n">
+        <v>1</v>
+      </c>
+      <c r="O396" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
+      <c r="S396" t="n">
+        <v>1</v>
+      </c>
+      <c r="T396" t="n">
+        <v>0</v>
+      </c>
+      <c r="U396" t="n">
+        <v>0</v>
+      </c>
+      <c r="V396" t="n">
+        <v>0</v>
+      </c>
+      <c r="W396" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="X396" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>10</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>D. BUHORSKYI</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G397" t="n">
+        <v>174</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="n">
+        <v>1</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0</v>
+      </c>
+      <c r="O397" t="n">
+        <v>1</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0</v>
+      </c>
+      <c r="T397" t="n">
+        <v>0</v>
+      </c>
+      <c r="U397" t="n">
+        <v>0</v>
+      </c>
+      <c r="V397" t="n">
+        <v>0</v>
+      </c>
+      <c r="W397" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="X397" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>175.76</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>10</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>D. PETIT</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G398" t="n">
+        <v>57</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0</v>
+      </c>
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
+      <c r="S398" t="n">
+        <v>1</v>
+      </c>
+      <c r="T398" t="n">
+        <v>0</v>
+      </c>
+      <c r="U398" t="n">
+        <v>0</v>
+      </c>
+      <c r="V398" t="n">
+        <v>0</v>
+      </c>
+      <c r="W398" t="n">
+        <v>0</v>
+      </c>
+      <c r="X398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>10</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ vs ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>D. CARABALLO ROPERO</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G399" t="n">
+        <v>9</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>0</v>
+      </c>
+      <c r="U399" t="n">
+        <v>0</v>
+      </c>
+      <c r="V399" t="n">
+        <v>0</v>
+      </c>
+      <c r="W399" t="inlineStr"/>
+      <c r="X399" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y399" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/clutch_data_25_26_3FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y399"/>
+  <dimension ref="A1:Y482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33474,6 +33474,6931 @@
       </c>
       <c r="Y399" t="inlineStr"/>
     </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>11</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>P. DOMINGUEZ LORENZO</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G400" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>1</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="n">
+        <v>2</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1</v>
+      </c>
+      <c r="U400" t="n">
+        <v>0</v>
+      </c>
+      <c r="V400" t="n">
+        <v>1</v>
+      </c>
+      <c r="W400" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="X400" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>11</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>A. OLMEDO VELASCO</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G401" t="n">
+        <v>846</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>5</v>
+      </c>
+      <c r="J401" t="n">
+        <v>2</v>
+      </c>
+      <c r="K401" t="n">
+        <v>4</v>
+      </c>
+      <c r="L401" t="n">
+        <v>2</v>
+      </c>
+      <c r="M401" t="n">
+        <v>6</v>
+      </c>
+      <c r="N401" t="n">
+        <v>5</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
+      <c r="S401" t="n">
+        <v>2</v>
+      </c>
+      <c r="T401" t="n">
+        <v>3</v>
+      </c>
+      <c r="U401" t="n">
+        <v>3</v>
+      </c>
+      <c r="V401" t="n">
+        <v>0</v>
+      </c>
+      <c r="W401" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="X401" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>11</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>I. BLANCO-ARGIBAY GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="G402" t="n">
+        <v>769.8</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>3</v>
+      </c>
+      <c r="J402" t="n">
+        <v>1</v>
+      </c>
+      <c r="K402" t="n">
+        <v>2</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>1</v>
+      </c>
+      <c r="R402" t="n">
+        <v>4</v>
+      </c>
+      <c r="S402" t="n">
+        <v>0</v>
+      </c>
+      <c r="T402" t="n">
+        <v>4</v>
+      </c>
+      <c r="U402" t="n">
+        <v>2</v>
+      </c>
+      <c r="V402" t="n">
+        <v>2</v>
+      </c>
+      <c r="W402" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="X402" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>11</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>A. GOMEZ SERRANO</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="G403" t="n">
+        <v>682.1999999999999</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>5</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="n">
+        <v>3</v>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>0</v>
+      </c>
+      <c r="U403" t="n">
+        <v>0</v>
+      </c>
+      <c r="V403" t="n">
+        <v>0</v>
+      </c>
+      <c r="W403" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="X403" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>11</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>C. CUESTA DE SANTOS</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G404" t="n">
+        <v>379.8</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>1</v>
+      </c>
+      <c r="J404" t="n">
+        <v>1</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>3</v>
+      </c>
+      <c r="N404" t="n">
+        <v>3</v>
+      </c>
+      <c r="O404" t="n">
+        <v>1</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>1</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
+      <c r="S404" t="n">
+        <v>0</v>
+      </c>
+      <c r="T404" t="n">
+        <v>1</v>
+      </c>
+      <c r="U404" t="n">
+        <v>0</v>
+      </c>
+      <c r="V404" t="n">
+        <v>1</v>
+      </c>
+      <c r="W404" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="X404" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>81.34999999999999</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>11</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>M. SANCHEZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="G405" t="n">
+        <v>331.2</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0</v>
+      </c>
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" t="n">
+        <v>1</v>
+      </c>
+      <c r="S405" t="n">
+        <v>1</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1</v>
+      </c>
+      <c r="U405" t="n">
+        <v>1</v>
+      </c>
+      <c r="V405" t="n">
+        <v>0</v>
+      </c>
+      <c r="W405" t="n">
+        <v>10</v>
+      </c>
+      <c r="X405" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>48.13</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>11</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>E. BOADA MONTESDEOCA</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G406" t="n">
+        <v>307.2</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>0</v>
+      </c>
+      <c r="U406" t="n">
+        <v>0</v>
+      </c>
+      <c r="V406" t="n">
+        <v>0</v>
+      </c>
+      <c r="W406" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="X406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>11</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>I. VALDIVIA MERINO</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G407" t="n">
+        <v>90</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
+      <c r="S407" t="n">
+        <v>0</v>
+      </c>
+      <c r="T407" t="n">
+        <v>1</v>
+      </c>
+      <c r="U407" t="n">
+        <v>1</v>
+      </c>
+      <c r="V407" t="n">
+        <v>0</v>
+      </c>
+      <c r="W407" t="n">
+        <v>50</v>
+      </c>
+      <c r="X407" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>11</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>I. FINI</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G408" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0</v>
+      </c>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
+      <c r="S408" t="n">
+        <v>0</v>
+      </c>
+      <c r="T408" t="n">
+        <v>0</v>
+      </c>
+      <c r="U408" t="n">
+        <v>0</v>
+      </c>
+      <c r="V408" t="n">
+        <v>0</v>
+      </c>
+      <c r="W408" t="n">
+        <v>0</v>
+      </c>
+      <c r="X408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>-40.91</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>11</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>C. BARROS CONDES</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G409" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>4</v>
+      </c>
+      <c r="J409" t="n">
+        <v>1</v>
+      </c>
+      <c r="K409" t="n">
+        <v>4</v>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="n">
+        <v>4</v>
+      </c>
+      <c r="N409" t="n">
+        <v>4</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
+      <c r="S409" t="n">
+        <v>4</v>
+      </c>
+      <c r="T409" t="n">
+        <v>3</v>
+      </c>
+      <c r="U409" t="n">
+        <v>1</v>
+      </c>
+      <c r="V409" t="n">
+        <v>2</v>
+      </c>
+      <c r="W409" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="X409" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>-23.24</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>11</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>D. TOLOSA OROPESA</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G410" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>7</v>
+      </c>
+      <c r="J410" t="n">
+        <v>1</v>
+      </c>
+      <c r="K410" t="n">
+        <v>2</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>2</v>
+      </c>
+      <c r="N410" t="n">
+        <v>1</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>3</v>
+      </c>
+      <c r="R410" t="n">
+        <v>2</v>
+      </c>
+      <c r="S410" t="n">
+        <v>1</v>
+      </c>
+      <c r="T410" t="n">
+        <v>2</v>
+      </c>
+      <c r="U410" t="n">
+        <v>2</v>
+      </c>
+      <c r="V410" t="n">
+        <v>0</v>
+      </c>
+      <c r="W410" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="X410" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>-23.24</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>11</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>M. ALARCON ORTIZ</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G411" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>4</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2</v>
+      </c>
+      <c r="K411" t="n">
+        <v>2</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>4</v>
+      </c>
+      <c r="N411" t="n">
+        <v>2</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
+      <c r="S411" t="n">
+        <v>1</v>
+      </c>
+      <c r="T411" t="n">
+        <v>4</v>
+      </c>
+      <c r="U411" t="n">
+        <v>3</v>
+      </c>
+      <c r="V411" t="n">
+        <v>1</v>
+      </c>
+      <c r="W411" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="X411" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>-23.24</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>11</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>L. BERMEJO ALCALDE</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G412" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>5</v>
+      </c>
+      <c r="J412" t="n">
+        <v>1</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>2</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" t="n">
+        <v>1</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0</v>
+      </c>
+      <c r="T412" t="n">
+        <v>4</v>
+      </c>
+      <c r="U412" t="n">
+        <v>2</v>
+      </c>
+      <c r="V412" t="n">
+        <v>2</v>
+      </c>
+      <c r="W412" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="X412" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>-23.24</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>11</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>J. AYALA AYLLÓN</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="G413" t="n">
+        <v>811.8</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1</v>
+      </c>
+      <c r="K413" t="n">
+        <v>2</v>
+      </c>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>1</v>
+      </c>
+      <c r="R413" t="n">
+        <v>3</v>
+      </c>
+      <c r="S413" t="n">
+        <v>0</v>
+      </c>
+      <c r="T413" t="n">
+        <v>3</v>
+      </c>
+      <c r="U413" t="n">
+        <v>2</v>
+      </c>
+      <c r="V413" t="n">
+        <v>1</v>
+      </c>
+      <c r="W413" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="X413" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>-18.99</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>11</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>ADC BOADILLA vs GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>M. SANZ CÁMARA</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G414" t="n">
+        <v>48</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0</v>
+      </c>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
+      <c r="S414" t="n">
+        <v>0</v>
+      </c>
+      <c r="T414" t="n">
+        <v>0</v>
+      </c>
+      <c r="U414" t="n">
+        <v>0</v>
+      </c>
+      <c r="V414" t="n">
+        <v>0</v>
+      </c>
+      <c r="W414" t="inlineStr"/>
+      <c r="X414" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>12</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>P. SÁNCHEZ GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G415" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0</v>
+      </c>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0</v>
+      </c>
+      <c r="T415" t="n">
+        <v>0</v>
+      </c>
+      <c r="U415" t="n">
+        <v>0</v>
+      </c>
+      <c r="V415" t="n">
+        <v>0</v>
+      </c>
+      <c r="W415" t="n">
+        <v>0</v>
+      </c>
+      <c r="X415" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>-140.97</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>12</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>D. VAZQUEZ JEREZ</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G416" t="n">
+        <v>192</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="n">
+        <v>1</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
+      <c r="S416" t="n">
+        <v>0</v>
+      </c>
+      <c r="T416" t="n">
+        <v>1</v>
+      </c>
+      <c r="U416" t="n">
+        <v>1</v>
+      </c>
+      <c r="V416" t="n">
+        <v>0</v>
+      </c>
+      <c r="W416" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="X416" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>-149.3</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>12</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>A. REDONDO ALVAREZ DE SOTOMAYOR</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G417" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0</v>
+      </c>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0</v>
+      </c>
+      <c r="T417" t="n">
+        <v>1</v>
+      </c>
+      <c r="U417" t="n">
+        <v>0</v>
+      </c>
+      <c r="V417" t="n">
+        <v>1</v>
+      </c>
+      <c r="W417" t="n">
+        <v>0</v>
+      </c>
+      <c r="X417" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>-140.97</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>12</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>A. FERNÁNDEZ GÓMEZ</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G418" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>2</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>4</v>
+      </c>
+      <c r="N418" t="n">
+        <v>2</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0</v>
+      </c>
+      <c r="T418" t="n">
+        <v>0</v>
+      </c>
+      <c r="U418" t="n">
+        <v>0</v>
+      </c>
+      <c r="V418" t="n">
+        <v>0</v>
+      </c>
+      <c r="W418" t="n">
+        <v>100</v>
+      </c>
+      <c r="X418" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>-118.62</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>12</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>I. MENCARA JIMENEZ</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G419" t="n">
+        <v>138</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0</v>
+      </c>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
+      <c r="S419" t="n">
+        <v>0</v>
+      </c>
+      <c r="T419" t="n">
+        <v>0</v>
+      </c>
+      <c r="U419" t="n">
+        <v>0</v>
+      </c>
+      <c r="V419" t="n">
+        <v>0</v>
+      </c>
+      <c r="W419" t="n">
+        <v>0</v>
+      </c>
+      <c r="X419" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>12</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>A. MARTIN GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G420" t="n">
+        <v>75</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0</v>
+      </c>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
+      <c r="S420" t="n">
+        <v>0</v>
+      </c>
+      <c r="T420" t="n">
+        <v>0</v>
+      </c>
+      <c r="U420" t="n">
+        <v>0</v>
+      </c>
+      <c r="V420" t="n">
+        <v>0</v>
+      </c>
+      <c r="W420" t="n">
+        <v>0</v>
+      </c>
+      <c r="X420" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>12</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>G. ARTILES ROMERO</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G421" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J421" t="n">
+        <v>1</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0</v>
+      </c>
+      <c r="O421" t="n">
+        <v>1</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0</v>
+      </c>
+      <c r="T421" t="n">
+        <v>0</v>
+      </c>
+      <c r="U421" t="n">
+        <v>0</v>
+      </c>
+      <c r="V421" t="n">
+        <v>0</v>
+      </c>
+      <c r="W421" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="X421" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>12</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>J. GALLETTO LAMELA</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G422" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>2</v>
+      </c>
+      <c r="K422" t="n">
+        <v>2</v>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>2</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0</v>
+      </c>
+      <c r="T422" t="n">
+        <v>1</v>
+      </c>
+      <c r="U422" t="n">
+        <v>1</v>
+      </c>
+      <c r="V422" t="n">
+        <v>0</v>
+      </c>
+      <c r="W422" t="n">
+        <v>75</v>
+      </c>
+      <c r="X422" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>140.97</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>12</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>S. MANERO GUZMAN</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G423" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2</v>
+      </c>
+      <c r="J423" t="n">
+        <v>2</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0</v>
+      </c>
+      <c r="O423" t="n">
+        <v>1</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0</v>
+      </c>
+      <c r="T423" t="n">
+        <v>0</v>
+      </c>
+      <c r="U423" t="n">
+        <v>0</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0</v>
+      </c>
+      <c r="W423" t="n">
+        <v>50</v>
+      </c>
+      <c r="X423" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>140.97</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>12</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>K. RIVEROL DE LAS CASAS</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G424" t="n">
+        <v>192</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0</v>
+      </c>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
+      <c r="S424" t="n">
+        <v>0</v>
+      </c>
+      <c r="T424" t="n">
+        <v>0</v>
+      </c>
+      <c r="U424" t="n">
+        <v>0</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0</v>
+      </c>
+      <c r="W424" t="n">
+        <v>0</v>
+      </c>
+      <c r="X424" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>12</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>M. NIMAGA</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G425" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0</v>
+      </c>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
+      <c r="S425" t="n">
+        <v>0</v>
+      </c>
+      <c r="T425" t="n">
+        <v>2</v>
+      </c>
+      <c r="U425" t="n">
+        <v>1</v>
+      </c>
+      <c r="V425" t="n">
+        <v>1</v>
+      </c>
+      <c r="W425" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X425" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>12</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>P. ARGÜELLES ELORZA</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G426" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0</v>
+      </c>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="n">
+        <v>1</v>
+      </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
+      <c r="S426" t="n">
+        <v>0</v>
+      </c>
+      <c r="T426" t="n">
+        <v>1</v>
+      </c>
+      <c r="U426" t="n">
+        <v>0</v>
+      </c>
+      <c r="V426" t="n">
+        <v>1</v>
+      </c>
+      <c r="W426" t="n">
+        <v>0</v>
+      </c>
+      <c r="X426" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>118.62</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>12</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>E. DUQUE NEGRÍN</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G427" t="n">
+        <v>51</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0</v>
+      </c>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
+      <c r="S427" t="n">
+        <v>0</v>
+      </c>
+      <c r="T427" t="n">
+        <v>0</v>
+      </c>
+      <c r="U427" t="n">
+        <v>0</v>
+      </c>
+      <c r="V427" t="n">
+        <v>0</v>
+      </c>
+      <c r="W427" t="n">
+        <v>0</v>
+      </c>
+      <c r="X427" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>12</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>BALONCESTO TELDE vs EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>A. SISTAC RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>EB FELIPE ANTÓN</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N428" t="n">
+        <v>0</v>
+      </c>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
+      <c r="S428" t="n">
+        <v>0</v>
+      </c>
+      <c r="T428" t="n">
+        <v>0</v>
+      </c>
+      <c r="U428" t="n">
+        <v>0</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0</v>
+      </c>
+      <c r="W428" t="n">
+        <v>0</v>
+      </c>
+      <c r="X428" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>12</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>B. OJEDA OCHOA</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G429" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>2</v>
+      </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
+      <c r="S429" t="n">
+        <v>0</v>
+      </c>
+      <c r="T429" t="n">
+        <v>0</v>
+      </c>
+      <c r="U429" t="n">
+        <v>0</v>
+      </c>
+      <c r="V429" t="n">
+        <v>0</v>
+      </c>
+      <c r="W429" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="X429" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>-55.13</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>12</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>L. VALERA VILLEGAS</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G430" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>2</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
+      <c r="S430" t="n">
+        <v>1</v>
+      </c>
+      <c r="T430" t="n">
+        <v>1</v>
+      </c>
+      <c r="U430" t="n">
+        <v>1</v>
+      </c>
+      <c r="V430" t="n">
+        <v>0</v>
+      </c>
+      <c r="W430" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="X430" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>-55.13</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>12</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>D. EBOLO OLU-ELIJAH</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G431" t="n">
+        <v>273</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0</v>
+      </c>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="n">
+        <v>1</v>
+      </c>
+      <c r="R431" t="n">
+        <v>2</v>
+      </c>
+      <c r="S431" t="n">
+        <v>0</v>
+      </c>
+      <c r="T431" t="n">
+        <v>1</v>
+      </c>
+      <c r="U431" t="n">
+        <v>0</v>
+      </c>
+      <c r="V431" t="n">
+        <v>1</v>
+      </c>
+      <c r="W431" t="n">
+        <v>25</v>
+      </c>
+      <c r="X431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>-15.36</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>12</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>A. ARMSTRONG</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G432" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0</v>
+      </c>
+      <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
+      <c r="S432" t="n">
+        <v>0</v>
+      </c>
+      <c r="T432" t="n">
+        <v>0</v>
+      </c>
+      <c r="U432" t="n">
+        <v>0</v>
+      </c>
+      <c r="V432" t="n">
+        <v>0</v>
+      </c>
+      <c r="W432" t="n">
+        <v>0</v>
+      </c>
+      <c r="X432" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y432" t="n">
+        <v>-170.45</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>12</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>M. DIALLO</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G433" t="n">
+        <v>159</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2</v>
+      </c>
+      <c r="J433" t="n">
+        <v>2</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" t="n">
+        <v>0</v>
+      </c>
+      <c r="O433" t="n">
+        <v>1</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
+      <c r="S433" t="n">
+        <v>0</v>
+      </c>
+      <c r="T433" t="n">
+        <v>0</v>
+      </c>
+      <c r="U433" t="n">
+        <v>0</v>
+      </c>
+      <c r="V433" t="n">
+        <v>0</v>
+      </c>
+      <c r="W433" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X433" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>12</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>F. DIAZ ZARZUELA</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G434" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>1</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" t="n">
+        <v>1</v>
+      </c>
+      <c r="S434" t="n">
+        <v>0</v>
+      </c>
+      <c r="T434" t="n">
+        <v>0</v>
+      </c>
+      <c r="U434" t="n">
+        <v>0</v>
+      </c>
+      <c r="V434" t="n">
+        <v>0</v>
+      </c>
+      <c r="W434" t="n">
+        <v>69.44</v>
+      </c>
+      <c r="X434" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>-243.9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>12</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>E. CALVO SALVE</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G435" t="n">
+        <v>117</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>1</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N435" t="n">
+        <v>0</v>
+      </c>
+      <c r="O435" t="n">
+        <v>1</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
+      <c r="S435" t="n">
+        <v>0</v>
+      </c>
+      <c r="T435" t="n">
+        <v>0</v>
+      </c>
+      <c r="U435" t="n">
+        <v>0</v>
+      </c>
+      <c r="V435" t="n">
+        <v>0</v>
+      </c>
+      <c r="W435" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="X435" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>-15.94</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>12</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>P. ESTEBANEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G436" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K436" t="n">
+        <v>1</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
+      <c r="S436" t="n">
+        <v>0</v>
+      </c>
+      <c r="T436" t="n">
+        <v>0</v>
+      </c>
+      <c r="U436" t="n">
+        <v>0</v>
+      </c>
+      <c r="V436" t="n">
+        <v>0</v>
+      </c>
+      <c r="W436" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="X436" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>12</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>C. CRESPO MONTESINOS</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G437" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>2</v>
+      </c>
+      <c r="N437" t="n">
+        <v>2</v>
+      </c>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
+      <c r="S437" t="n">
+        <v>2</v>
+      </c>
+      <c r="T437" t="n">
+        <v>3</v>
+      </c>
+      <c r="U437" t="n">
+        <v>2</v>
+      </c>
+      <c r="V437" t="n">
+        <v>1</v>
+      </c>
+      <c r="W437" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="X437" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>12</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>A. BIERSACK LOPEZ</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G438" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3</v>
+      </c>
+      <c r="J438" t="n">
+        <v>2</v>
+      </c>
+      <c r="K438" t="n">
+        <v>1</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M438" t="n">
+        <v>4</v>
+      </c>
+      <c r="N438" t="n">
+        <v>1</v>
+      </c>
+      <c r="O438" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R438" t="n">
+        <v>1</v>
+      </c>
+      <c r="S438" t="n">
+        <v>1</v>
+      </c>
+      <c r="T438" t="n">
+        <v>1</v>
+      </c>
+      <c r="U438" t="n">
+        <v>1</v>
+      </c>
+      <c r="V438" t="n">
+        <v>0</v>
+      </c>
+      <c r="W438" t="n">
+        <v>88.34</v>
+      </c>
+      <c r="X438" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>12</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>D. MARINEZ FERNANDEZ-URRUTIA</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G439" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>2</v>
+      </c>
+      <c r="N439" t="n">
+        <v>1</v>
+      </c>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
+      <c r="S439" t="n">
+        <v>0</v>
+      </c>
+      <c r="T439" t="n">
+        <v>0</v>
+      </c>
+      <c r="U439" t="n">
+        <v>0</v>
+      </c>
+      <c r="V439" t="n">
+        <v>0</v>
+      </c>
+      <c r="W439" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="X439" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>12</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>A. GARCIA QUILEZ CUERVAS</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G440" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0</v>
+      </c>
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
+      <c r="S440" t="n">
+        <v>0</v>
+      </c>
+      <c r="T440" t="n">
+        <v>1</v>
+      </c>
+      <c r="U440" t="n">
+        <v>1</v>
+      </c>
+      <c r="V440" t="n">
+        <v>0</v>
+      </c>
+      <c r="W440" t="n">
+        <v>0</v>
+      </c>
+      <c r="X440" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>243.9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>12</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>O. HADI ADEGBITE</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G441" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0</v>
+      </c>
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" t="n">
+        <v>1</v>
+      </c>
+      <c r="S441" t="n">
+        <v>0</v>
+      </c>
+      <c r="T441" t="n">
+        <v>0</v>
+      </c>
+      <c r="U441" t="n">
+        <v>0</v>
+      </c>
+      <c r="V441" t="n">
+        <v>0</v>
+      </c>
+      <c r="W441" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="X441" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>-83.33</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>12</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS vs LUJISA GUADALAJARA BASKET</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>M. VILLAMANDOS TORRES</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>UROS DE RIVAS</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G442" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0</v>
+      </c>
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
+      <c r="S442" t="n">
+        <v>0</v>
+      </c>
+      <c r="T442" t="n">
+        <v>0</v>
+      </c>
+      <c r="U442" t="n">
+        <v>0</v>
+      </c>
+      <c r="V442" t="n">
+        <v>0</v>
+      </c>
+      <c r="W442" t="n">
+        <v>0</v>
+      </c>
+      <c r="X442" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>137.36</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>12</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>S. RODRIGUEZ GREGORIO</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G443" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>1</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>2</v>
+      </c>
+      <c r="N443" t="n">
+        <v>2</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
+      <c r="S443" t="n">
+        <v>0</v>
+      </c>
+      <c r="T443" t="n">
+        <v>1</v>
+      </c>
+      <c r="U443" t="n">
+        <v>1</v>
+      </c>
+      <c r="V443" t="n">
+        <v>0</v>
+      </c>
+      <c r="W443" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="X443" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>-47.01</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>12</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>C. BARROS CONDES</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F444" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G444" t="n">
+        <v>339</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2</v>
+      </c>
+      <c r="J444" t="n">
+        <v>1</v>
+      </c>
+      <c r="K444" t="n">
+        <v>2</v>
+      </c>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="n">
+        <v>3</v>
+      </c>
+      <c r="N444" t="n">
+        <v>3</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
+      <c r="S444" t="n">
+        <v>0</v>
+      </c>
+      <c r="T444" t="n">
+        <v>0</v>
+      </c>
+      <c r="U444" t="n">
+        <v>0</v>
+      </c>
+      <c r="V444" t="n">
+        <v>0</v>
+      </c>
+      <c r="W444" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="X444" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>-42.96</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>12</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>M. BATLLE BERNARDO</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G445" t="n">
+        <v>330</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>3</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>2</v>
+      </c>
+      <c r="N445" t="n">
+        <v>1</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
+      <c r="S445" t="n">
+        <v>0</v>
+      </c>
+      <c r="T445" t="n">
+        <v>0</v>
+      </c>
+      <c r="U445" t="n">
+        <v>0</v>
+      </c>
+      <c r="V445" t="n">
+        <v>0</v>
+      </c>
+      <c r="W445" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="X445" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>-80.43000000000001</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>12</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>M. ALARCON ORTIZ</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G446" t="n">
+        <v>330</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
+      <c r="S446" t="n">
+        <v>3</v>
+      </c>
+      <c r="T446" t="n">
+        <v>0</v>
+      </c>
+      <c r="U446" t="n">
+        <v>0</v>
+      </c>
+      <c r="V446" t="n">
+        <v>0</v>
+      </c>
+      <c r="W446" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="X446" t="n">
+        <v>-10</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>-87.03</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>12</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>M. SANZ CÁMARA</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G447" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>1</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>2</v>
+      </c>
+      <c r="R447" t="n">
+        <v>1</v>
+      </c>
+      <c r="S447" t="n">
+        <v>1</v>
+      </c>
+      <c r="T447" t="n">
+        <v>0</v>
+      </c>
+      <c r="U447" t="n">
+        <v>0</v>
+      </c>
+      <c r="V447" t="n">
+        <v>0</v>
+      </c>
+      <c r="W447" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="X447" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>-34.55</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>12</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>J. AYALA AYLLÓN</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G448" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>0</v>
+      </c>
+      <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="n">
+        <v>2</v>
+      </c>
+      <c r="R448" t="n">
+        <v>2</v>
+      </c>
+      <c r="S448" t="n">
+        <v>0</v>
+      </c>
+      <c r="T448" t="n">
+        <v>0</v>
+      </c>
+      <c r="U448" t="n">
+        <v>0</v>
+      </c>
+      <c r="V448" t="n">
+        <v>0</v>
+      </c>
+      <c r="W448" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="X448" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>-46.58</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>12</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>D. TOLOSA OROPESA</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G449" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1</v>
+      </c>
+      <c r="J449" t="n">
+        <v>1</v>
+      </c>
+      <c r="K449" t="n">
+        <v>1</v>
+      </c>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" t="n">
+        <v>0</v>
+      </c>
+      <c r="O449" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
+      <c r="S449" t="n">
+        <v>1</v>
+      </c>
+      <c r="T449" t="n">
+        <v>0</v>
+      </c>
+      <c r="U449" t="n">
+        <v>0</v>
+      </c>
+      <c r="V449" t="n">
+        <v>0</v>
+      </c>
+      <c r="W449" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="X449" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>12</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>L. BERMEJO ALCALDE</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G450" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" t="n">
+        <v>0</v>
+      </c>
+      <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
+      <c r="S450" t="n">
+        <v>0</v>
+      </c>
+      <c r="T450" t="n">
+        <v>0</v>
+      </c>
+      <c r="U450" t="n">
+        <v>0</v>
+      </c>
+      <c r="V450" t="n">
+        <v>0</v>
+      </c>
+      <c r="W450" t="n">
+        <v>0</v>
+      </c>
+      <c r="X450" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>-72.42</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>12</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>M. DEL VALLE REGALADO</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G451" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" t="n">
+        <v>0</v>
+      </c>
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
+      <c r="S451" t="n">
+        <v>0</v>
+      </c>
+      <c r="T451" t="n">
+        <v>0</v>
+      </c>
+      <c r="U451" t="n">
+        <v>0</v>
+      </c>
+      <c r="V451" t="n">
+        <v>0</v>
+      </c>
+      <c r="W451" t="n">
+        <v>0</v>
+      </c>
+      <c r="X451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>12</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>J. BARRA DE LA CRUZ</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G452" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3</v>
+      </c>
+      <c r="J452" t="n">
+        <v>2</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>2</v>
+      </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
+      <c r="S452" t="n">
+        <v>0</v>
+      </c>
+      <c r="T452" t="n">
+        <v>3</v>
+      </c>
+      <c r="U452" t="n">
+        <v>1</v>
+      </c>
+      <c r="V452" t="n">
+        <v>2</v>
+      </c>
+      <c r="W452" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="X452" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>12</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>J. MUNRO</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G453" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>1</v>
+      </c>
+      <c r="J453" t="n">
+        <v>1</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" t="n">
+        <v>1</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>1</v>
+      </c>
+      <c r="R453" t="n">
+        <v>1</v>
+      </c>
+      <c r="S453" t="n">
+        <v>2</v>
+      </c>
+      <c r="T453" t="n">
+        <v>1</v>
+      </c>
+      <c r="U453" t="n">
+        <v>0</v>
+      </c>
+      <c r="V453" t="n">
+        <v>1</v>
+      </c>
+      <c r="W453" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="X453" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>12</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>L. DE LA CRUZ DE LA ROSA</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G454" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2</v>
+      </c>
+      <c r="J454" t="n">
+        <v>1</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>4</v>
+      </c>
+      <c r="N454" t="n">
+        <v>2</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" t="n">
+        <v>2</v>
+      </c>
+      <c r="S454" t="n">
+        <v>0</v>
+      </c>
+      <c r="T454" t="n">
+        <v>4</v>
+      </c>
+      <c r="U454" t="n">
+        <v>2</v>
+      </c>
+      <c r="V454" t="n">
+        <v>2</v>
+      </c>
+      <c r="W454" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="X454" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>12</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>E. ECHEVERRIA MATEO</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G455" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>1</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
+      <c r="S455" t="n">
+        <v>0</v>
+      </c>
+      <c r="T455" t="n">
+        <v>2</v>
+      </c>
+      <c r="U455" t="n">
+        <v>1</v>
+      </c>
+      <c r="V455" t="n">
+        <v>1</v>
+      </c>
+      <c r="W455" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="X455" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y455" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>12</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>GRUPO EGIDO PINTOBASKET vs RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>M. OILLATAGUERRE</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>RECUCYM BAZU</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="G456" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>5</v>
+      </c>
+      <c r="J456" t="n">
+        <v>4</v>
+      </c>
+      <c r="K456" t="n">
+        <v>2</v>
+      </c>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="n">
+        <v>2</v>
+      </c>
+      <c r="N456" t="n">
+        <v>1</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>1</v>
+      </c>
+      <c r="R456" t="n">
+        <v>2</v>
+      </c>
+      <c r="S456" t="n">
+        <v>1</v>
+      </c>
+      <c r="T456" t="n">
+        <v>1</v>
+      </c>
+      <c r="U456" t="n">
+        <v>0</v>
+      </c>
+      <c r="V456" t="n">
+        <v>1</v>
+      </c>
+      <c r="W456" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="X456" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y456" t="n">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>12</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>C. UNANUE CEGARRA</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G457" t="n">
+        <v>222</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2</v>
+      </c>
+      <c r="J457" t="n">
+        <v>1</v>
+      </c>
+      <c r="K457" t="n">
+        <v>2</v>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
+      <c r="S457" t="n">
+        <v>0</v>
+      </c>
+      <c r="T457" t="n">
+        <v>0</v>
+      </c>
+      <c r="U457" t="n">
+        <v>0</v>
+      </c>
+      <c r="V457" t="n">
+        <v>0</v>
+      </c>
+      <c r="W457" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="X457" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y457" t="n">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>12</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>V. ALONSO PASCUAL</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F458" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G458" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0</v>
+      </c>
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
+      <c r="S458" t="n">
+        <v>0</v>
+      </c>
+      <c r="T458" t="n">
+        <v>0</v>
+      </c>
+      <c r="U458" t="n">
+        <v>0</v>
+      </c>
+      <c r="V458" t="n">
+        <v>0</v>
+      </c>
+      <c r="W458" t="n">
+        <v>0</v>
+      </c>
+      <c r="X458" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y458" t="n">
+        <v>93.39</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>12</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>D. LORENZO NEGRETE</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G459" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="n">
+        <v>1</v>
+      </c>
+      <c r="J459" t="n">
+        <v>1</v>
+      </c>
+      <c r="K459" t="n">
+        <v>1</v>
+      </c>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="n">
+        <v>2</v>
+      </c>
+      <c r="N459" t="n">
+        <v>1</v>
+      </c>
+      <c r="O459" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
+      <c r="S459" t="n">
+        <v>0</v>
+      </c>
+      <c r="T459" t="n">
+        <v>0</v>
+      </c>
+      <c r="U459" t="n">
+        <v>0</v>
+      </c>
+      <c r="V459" t="n">
+        <v>0</v>
+      </c>
+      <c r="W459" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="X459" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y459" t="n">
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>12</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>C. KLOTZ MAROTO</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G460" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0</v>
+      </c>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R460" t="n">
+        <v>2</v>
+      </c>
+      <c r="S460" t="n">
+        <v>0</v>
+      </c>
+      <c r="T460" t="n">
+        <v>0</v>
+      </c>
+      <c r="U460" t="n">
+        <v>0</v>
+      </c>
+      <c r="V460" t="n">
+        <v>0</v>
+      </c>
+      <c r="W460" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="X460" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y460" t="n">
+        <v>154.35</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>12</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>S. GACIC</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G461" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J461" t="n">
+        <v>1</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>3</v>
+      </c>
+      <c r="N461" t="n">
+        <v>2</v>
+      </c>
+      <c r="O461" t="n">
+        <v>1</v>
+      </c>
+      <c r="P461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
+      <c r="S461" t="n">
+        <v>0</v>
+      </c>
+      <c r="T461" t="n">
+        <v>1</v>
+      </c>
+      <c r="U461" t="n">
+        <v>0</v>
+      </c>
+      <c r="V461" t="n">
+        <v>1</v>
+      </c>
+      <c r="W461" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="X461" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>-11.57</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>12</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>J. FRANCES PASCUAL</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G462" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0</v>
+      </c>
+      <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
+      <c r="S462" t="n">
+        <v>0</v>
+      </c>
+      <c r="T462" t="n">
+        <v>0</v>
+      </c>
+      <c r="U462" t="n">
+        <v>0</v>
+      </c>
+      <c r="V462" t="n">
+        <v>0</v>
+      </c>
+      <c r="W462" t="n">
+        <v>0</v>
+      </c>
+      <c r="X462" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>-11.57</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>12</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>B. GUEYE</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G463" t="n">
+        <v>85.19999999999999</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>0</v>
+      </c>
+      <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
+      <c r="S463" t="n">
+        <v>0</v>
+      </c>
+      <c r="T463" t="n">
+        <v>0</v>
+      </c>
+      <c r="U463" t="n">
+        <v>0</v>
+      </c>
+      <c r="V463" t="n">
+        <v>0</v>
+      </c>
+      <c r="W463" t="n">
+        <v>0</v>
+      </c>
+      <c r="X463" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y463" t="n">
+        <v>208.33</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>12</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>O. BALSELLS PLAZA</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G464" t="n">
+        <v>222</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0</v>
+      </c>
+      <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R464" t="n">
+        <v>2</v>
+      </c>
+      <c r="S464" t="n">
+        <v>0</v>
+      </c>
+      <c r="T464" t="n">
+        <v>0</v>
+      </c>
+      <c r="U464" t="n">
+        <v>0</v>
+      </c>
+      <c r="V464" t="n">
+        <v>0</v>
+      </c>
+      <c r="W464" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="X464" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>-83.33</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>12</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>S. GUEYE</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G465" t="n">
+        <v>222</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>1</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0</v>
+      </c>
+      <c r="K465" t="n">
+        <v>1</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N465" t="n">
+        <v>0</v>
+      </c>
+      <c r="O465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
+      <c r="S465" t="n">
+        <v>0</v>
+      </c>
+      <c r="T465" t="n">
+        <v>0</v>
+      </c>
+      <c r="U465" t="n">
+        <v>0</v>
+      </c>
+      <c r="V465" t="n">
+        <v>0</v>
+      </c>
+      <c r="W465" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="X465" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>-83.33</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>12</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>E. LLACER SIMLAT</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G466" t="n">
+        <v>222</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N466" t="n">
+        <v>0</v>
+      </c>
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="n">
+        <v>1</v>
+      </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
+      <c r="S466" t="n">
+        <v>0</v>
+      </c>
+      <c r="T466" t="n">
+        <v>0</v>
+      </c>
+      <c r="U466" t="n">
+        <v>0</v>
+      </c>
+      <c r="V466" t="n">
+        <v>0</v>
+      </c>
+      <c r="W466" t="n">
+        <v>0</v>
+      </c>
+      <c r="X466" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>-83.33</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>12</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>D. VIERA LOPEZ</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G467" t="n">
+        <v>222</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="n">
+        <v>1</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>2</v>
+      </c>
+      <c r="N467" t="n">
+        <v>1</v>
+      </c>
+      <c r="O467" t="n">
+        <v>1</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
+      <c r="S467" t="n">
+        <v>0</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1</v>
+      </c>
+      <c r="U467" t="n">
+        <v>1</v>
+      </c>
+      <c r="V467" t="n">
+        <v>0</v>
+      </c>
+      <c r="W467" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="X467" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>-83.33</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>12</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>J. ABRIL RAMIRO</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G468" t="n">
+        <v>126</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>2</v>
+      </c>
+      <c r="N468" t="n">
+        <v>1</v>
+      </c>
+      <c r="O468" t="inlineStr"/>
+      <c r="P468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
+      <c r="S468" t="n">
+        <v>0</v>
+      </c>
+      <c r="T468" t="n">
+        <v>0</v>
+      </c>
+      <c r="U468" t="n">
+        <v>0</v>
+      </c>
+      <c r="V468" t="n">
+        <v>0</v>
+      </c>
+      <c r="W468" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="X468" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>-139.08</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>12</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>BALONCESTO TALAVERA vs CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>K. SKUTYELNIK</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G469" t="n">
+        <v>96</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0</v>
+      </c>
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" t="n">
+        <v>1</v>
+      </c>
+      <c r="S469" t="n">
+        <v>0</v>
+      </c>
+      <c r="T469" t="n">
+        <v>0</v>
+      </c>
+      <c r="U469" t="n">
+        <v>0</v>
+      </c>
+      <c r="V469" t="n">
+        <v>0</v>
+      </c>
+      <c r="W469" t="n">
+        <v>113.64</v>
+      </c>
+      <c r="X469" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>195.56</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>12</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>J. ATIENZA PEREA</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G470" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>1</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N470" t="n">
+        <v>0</v>
+      </c>
+      <c r="O470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>2</v>
+      </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
+      <c r="S470" t="n">
+        <v>0</v>
+      </c>
+      <c r="T470" t="n">
+        <v>0</v>
+      </c>
+      <c r="U470" t="n">
+        <v>0</v>
+      </c>
+      <c r="V470" t="n">
+        <v>0</v>
+      </c>
+      <c r="W470" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="X470" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>107.36</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>12</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>N. MAIGA</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G471" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2</v>
+      </c>
+      <c r="J471" t="n">
+        <v>2</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0</v>
+      </c>
+      <c r="O471" t="n">
+        <v>1</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
+      <c r="S471" t="n">
+        <v>0</v>
+      </c>
+      <c r="T471" t="n">
+        <v>2</v>
+      </c>
+      <c r="U471" t="n">
+        <v>1</v>
+      </c>
+      <c r="V471" t="n">
+        <v>1</v>
+      </c>
+      <c r="W471" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="X471" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y471" t="n">
+        <v>107.36</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>12</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>G. DIAZ MONTERO</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G472" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2</v>
+      </c>
+      <c r="J472" t="n">
+        <v>1</v>
+      </c>
+      <c r="K472" t="n">
+        <v>2</v>
+      </c>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="n">
+        <v>2</v>
+      </c>
+      <c r="N472" t="n">
+        <v>1</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R472" t="n">
+        <v>1</v>
+      </c>
+      <c r="S472" t="n">
+        <v>0</v>
+      </c>
+      <c r="T472" t="n">
+        <v>2</v>
+      </c>
+      <c r="U472" t="n">
+        <v>1</v>
+      </c>
+      <c r="V472" t="n">
+        <v>1</v>
+      </c>
+      <c r="W472" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="X472" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y472" t="n">
+        <v>107.36</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>12</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>D. FERNANDEZ CAÑAS</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G473" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0</v>
+      </c>
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
+      <c r="S473" t="n">
+        <v>0</v>
+      </c>
+      <c r="T473" t="n">
+        <v>1</v>
+      </c>
+      <c r="U473" t="n">
+        <v>0</v>
+      </c>
+      <c r="V473" t="n">
+        <v>1</v>
+      </c>
+      <c r="W473" t="n">
+        <v>0</v>
+      </c>
+      <c r="X473" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y473" t="n">
+        <v>107.36</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>12</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>H. PEREZ SANCHEZ</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G474" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>2</v>
+      </c>
+      <c r="N474" t="n">
+        <v>1</v>
+      </c>
+      <c r="O474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
+      <c r="S474" t="n">
+        <v>0</v>
+      </c>
+      <c r="T474" t="n">
+        <v>2</v>
+      </c>
+      <c r="U474" t="n">
+        <v>1</v>
+      </c>
+      <c r="V474" t="n">
+        <v>1</v>
+      </c>
+      <c r="W474" t="n">
+        <v>50</v>
+      </c>
+      <c r="X474" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y474" t="n">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>12</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>B. SCHUCH</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G475" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>1</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
+      <c r="K475" t="n">
+        <v>1</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" t="n">
+        <v>0</v>
+      </c>
+      <c r="O475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
+      <c r="S475" t="n">
+        <v>0</v>
+      </c>
+      <c r="T475" t="n">
+        <v>1</v>
+      </c>
+      <c r="U475" t="n">
+        <v>0</v>
+      </c>
+      <c r="V475" t="n">
+        <v>1</v>
+      </c>
+      <c r="W475" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="X475" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y475" t="n">
+        <v>-107.36</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>12</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>G. GOMA</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G476" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0</v>
+      </c>
+      <c r="K476" t="n">
+        <v>1</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>4</v>
+      </c>
+      <c r="N476" t="n">
+        <v>0</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
+      <c r="S476" t="n">
+        <v>0</v>
+      </c>
+      <c r="T476" t="n">
+        <v>1</v>
+      </c>
+      <c r="U476" t="n">
+        <v>1</v>
+      </c>
+      <c r="V476" t="n">
+        <v>0</v>
+      </c>
+      <c r="W476" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="X476" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y476" t="n">
+        <v>-107.36</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>12</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>M. RUBIO CORCHADO</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G477" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N477" t="n">
+        <v>0</v>
+      </c>
+      <c r="O477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
+      <c r="S477" t="n">
+        <v>0</v>
+      </c>
+      <c r="T477" t="n">
+        <v>1</v>
+      </c>
+      <c r="U477" t="n">
+        <v>1</v>
+      </c>
+      <c r="V477" t="n">
+        <v>0</v>
+      </c>
+      <c r="W477" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="X477" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>-95.75</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>12</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>L. SCHIEBELHUT LUIS</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G478" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N478" t="n">
+        <v>0</v>
+      </c>
+      <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
+      <c r="S478" t="n">
+        <v>0</v>
+      </c>
+      <c r="T478" t="n">
+        <v>0</v>
+      </c>
+      <c r="U478" t="n">
+        <v>0</v>
+      </c>
+      <c r="V478" t="n">
+        <v>0</v>
+      </c>
+      <c r="W478" t="n">
+        <v>0</v>
+      </c>
+      <c r="X478" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>-122.24</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>12</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>T. VERDERA BENASSAR</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G479" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2</v>
+      </c>
+      <c r="J479" t="n">
+        <v>1</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="n">
+        <v>0</v>
+      </c>
+      <c r="O479" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
+      <c r="S479" t="n">
+        <v>0</v>
+      </c>
+      <c r="T479" t="n">
+        <v>1</v>
+      </c>
+      <c r="U479" t="n">
+        <v>1</v>
+      </c>
+      <c r="V479" t="n">
+        <v>0</v>
+      </c>
+      <c r="W479" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="X479" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>-40.28</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>12</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>J. VAQUERO PASCUAL</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G480" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="n">
+        <v>1</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" t="n">
+        <v>0</v>
+      </c>
+      <c r="O480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R480" t="n">
+        <v>1</v>
+      </c>
+      <c r="S480" t="n">
+        <v>1</v>
+      </c>
+      <c r="T480" t="n">
+        <v>0</v>
+      </c>
+      <c r="U480" t="n">
+        <v>0</v>
+      </c>
+      <c r="V480" t="n">
+        <v>0</v>
+      </c>
+      <c r="W480" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="X480" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>-159.57</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>12</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>D. VAL GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G481" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>1</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>1</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
+      <c r="S481" t="n">
+        <v>0</v>
+      </c>
+      <c r="T481" t="n">
+        <v>0</v>
+      </c>
+      <c r="U481" t="n">
+        <v>0</v>
+      </c>
+      <c r="V481" t="n">
+        <v>0</v>
+      </c>
+      <c r="W481" t="inlineStr"/>
+      <c r="X481" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>12</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>C.B. TRES CANTOS vs ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>M. ESTAPE ROIZ</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>ZENTRO BASKET MADRID</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G482" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>0</v>
+      </c>
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
+      <c r="S482" t="n">
+        <v>0</v>
+      </c>
+      <c r="T482" t="n">
+        <v>0</v>
+      </c>
+      <c r="U482" t="n">
+        <v>0</v>
+      </c>
+      <c r="V482" t="n">
+        <v>0</v>
+      </c>
+      <c r="W482" t="n">
+        <v>0</v>
+      </c>
+      <c r="X482" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>-263.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
